--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1574825.721673196</v>
+        <v>-1577402.043154437</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>111.9946590844276</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.46756253897801</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>24.04388985474712</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>93.66874377651165</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2781875329279</v>
       </c>
       <c r="D5" t="n">
-        <v>127.450398726548</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657088</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.30622015837533</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5189231402788</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>27.55805524026534</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>229.7965692041376</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>53.54735467376845</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507411</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>191.6227449987294</v>
+        <v>225.709655389038</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165.6720686991039</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>1.619672595757311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,10 +2084,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.723851760223</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.761334819812</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.495636213061</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E2" t="n">
-        <v>636.7073836148168</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F2" t="n">
-        <v>636.7073836148168</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G2" t="n">
-        <v>221.6349334598132</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760223</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4410,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,31 +4428,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>295.2932990564321</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>295.2932990564321</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>295.2932990564321</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>127.5904624311511</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>127.5904624311511</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>896.6002483891475</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>704.9143642159738</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796247</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939213</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U7" t="n">
-        <v>646.6939999491682</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="V7" t="n">
-        <v>646.6939999491682</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="W7" t="n">
-        <v>646.6939999491682</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="X7" t="n">
-        <v>646.6939999491682</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.6939999491682</v>
+        <v>320.1870662708831</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490881</v>
+        <v>558.3633855315331</v>
       </c>
       <c r="E8" t="n">
-        <v>709.615767892637</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030294</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>866.7987687739744</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>866.7987687739744</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>645.0321533435005</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>355.929286469144</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V10" t="n">
-        <v>355.929286469144</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>120.600353476394</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5060,25 +5060,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277345</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,22 +5279,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511905</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,7 +7348,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380719</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
         <v>782.551295565682</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.1262230804333</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>182.6131053028929</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>35.88485787086008</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.90567154653762</v>
+        <v>125.8802054996575</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582804</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.08691039030776</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.15991148283342</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26338,7 +26338,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
@@ -26347,13 +26347,13 @@
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26390,22 +26390,22 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
+        <v>19427.71799363179</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85055.02793551172</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>19427.71799363178</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>85055.02793551181</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>19427.71799363174</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020603</v>
+        <v>3456.426522020458</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,31 +26430,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="L4" t="n">
         <v>22817.55530496083</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496079</v>
+        <v>22817.55530496089</v>
       </c>
       <c r="N4" t="n">
+        <v>22817.55530496084</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.5553049609</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496082</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324090.26896548</v>
+        <v>-1324485.089906633</v>
       </c>
       <c r="C6" t="n">
-        <v>-57848.37493919625</v>
+        <v>-57848.37493919613</v>
       </c>
       <c r="D6" t="n">
-        <v>-57848.37493919619</v>
+        <v>-57848.37493919615</v>
       </c>
       <c r="E6" t="n">
-        <v>-300111.0327273784</v>
+        <v>-300145.7706528142</v>
       </c>
       <c r="F6" t="n">
-        <v>25301.42907997663</v>
+        <v>25266.69115454091</v>
       </c>
       <c r="G6" t="n">
-        <v>25301.42907997659</v>
+        <v>25266.69115454088</v>
       </c>
       <c r="H6" t="n">
-        <v>25301.42907997657</v>
+        <v>25266.69115454088</v>
       </c>
       <c r="I6" t="n">
-        <v>25301.42907997662</v>
+        <v>25266.69115454095</v>
       </c>
       <c r="J6" t="n">
-        <v>-192229.7733173009</v>
+        <v>-192264.5112427366</v>
       </c>
       <c r="K6" t="n">
+        <v>-1727.079426258395</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17700.6385673734</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-67354.38936813839</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17700.63856737342</v>
+      </c>
+      <c r="O6" t="n">
+        <v>17700.63856737342</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1727.079426258366</v>
-      </c>
-      <c r="L6" t="n">
-        <v>17700.63856737337</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-67354.38936813838</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17700.63856737339</v>
-      </c>
-      <c r="O6" t="n">
-        <v>17700.63856737332</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1727.079426258279</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>64.88826281530021</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>209.6432777296316</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="D5" t="n">
-        <v>227.2326428941349</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.7195881006529</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>103.6929150653341</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>354.3723148319964</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.1251564493159</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>35.38479799627896</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783264</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28804,10 +28804,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,13 +32467,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,10 +32956,10 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33032,10 +33032,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
